--- a/biology/Médecine/Theranos/Theranos.xlsx
+++ b/biology/Médecine/Theranos/Theranos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Theranos était une entreprise américaine dans le domaine des technologies de la santé dont les dirigeants ont été inculpés en 2018 pour fraude massive. Implantée dans la Silicon Valley, Theranos est fondée en 2003 par Elizabeth Holmes alors âgée de seulement 19 ans. « Theranos » est un mot-valise formé à partir des mots anglais therapy (thérapie) et diagnosis (diagnostic).
@@ -512,17 +524,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise est censée avoir développé une technologie permettant de réaliser des tests sanguins peu coûteux. La fondatrice prétend réaliser des tests sanguins avec quelques gouttes de sang recueillies sans aiguille avec sa propre méthode de prélèvement. Cette perspective lui permet de lever rapidement des fonds d'investissement à hauteur de 700 millions de dollars[2]. En 2015, son entreprise est valorisée à plus de 9 milliards de dollars[3]. 
-En octobre 2015, une enquête du journaliste John Carreyrou parue dans le Wall Street Journal révèle que Theranos n'utilise pas sa propre technologie pour effectuer des tests sanguins et que l'entreprise a cherché à masquer les incohérences de ses tests[4].
-Par la suite, plusieurs experts médicaux ainsi que l'administration américaine, expriment leur scepticisme à propos de la technologie de Theranos, notant que celle-ci n'a jamais été évaluée par des panels d'experts indépendants ni fait l'objet de publications scientifiques et que Theranos n'a en outre jamais apporté de preuves de sa fiabilité. De plus, des inspections dans les locaux de Theranos ont constaté des problèmes majeurs dans la gestion de leurs laboratoires[5].
-Depuis le début de la controverse, plusieurs institutions médicales et entreprises pharmacologiques ont mis fin à leurs relations avec Theranos. L'entreprise ainsi que sa dirigeante se voient menacées de perdre l'autorisation d'exploiter des laboratoires d'analyses sanguines[6].
-Plusieurs experts et médias ont exprimé l'hypothèse que la valeur financière de l'entreprise était hautement fantaisiste et que l'entreprise était construite sur une escroquerie[7].
-Le 18 mai 2016, le Wall Street Journal révèle que, d'après une source proche du dossier, Theranos a annulé l'ensemble des tests effectués en 2014 et 2015 sur sa plateforme Edison et a définitivement cessé d'utiliser celle-ci depuis juin 2015[8],[9].
-En octobre 2016, dans une lettre ouverte, Elizabeth Holmes indique que l'entreprise va fermer ses laboratoires et licencier 340 salariés[10],[11]. En mars 2018, la Securities and Exchange Commission (SEC) récapitule, dans un acte d'accusation, les falsifications dont cette société est accusée[2].
-En 2018, ses dirigeants (parmi lesquels Ramesh Balwani) sont inculpés pour « fraude massive » : la technologie développée n'était pas exploitée comme annoncée dans les levées de fonds aux investisseurs, et servait à couvrir une « escroquerie sophistiquée », selon la Securities and Exchange Commission[12],[13].
-En septembre 2018, le nouveau directeur général de Theranos annonce la dissolution de la société[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise est censée avoir développé une technologie permettant de réaliser des tests sanguins peu coûteux. La fondatrice prétend réaliser des tests sanguins avec quelques gouttes de sang recueillies sans aiguille avec sa propre méthode de prélèvement. Cette perspective lui permet de lever rapidement des fonds d'investissement à hauteur de 700 millions de dollars. En 2015, son entreprise est valorisée à plus de 9 milliards de dollars. 
+En octobre 2015, une enquête du journaliste John Carreyrou parue dans le Wall Street Journal révèle que Theranos n'utilise pas sa propre technologie pour effectuer des tests sanguins et que l'entreprise a cherché à masquer les incohérences de ses tests.
+Par la suite, plusieurs experts médicaux ainsi que l'administration américaine, expriment leur scepticisme à propos de la technologie de Theranos, notant que celle-ci n'a jamais été évaluée par des panels d'experts indépendants ni fait l'objet de publications scientifiques et que Theranos n'a en outre jamais apporté de preuves de sa fiabilité. De plus, des inspections dans les locaux de Theranos ont constaté des problèmes majeurs dans la gestion de leurs laboratoires.
+Depuis le début de la controverse, plusieurs institutions médicales et entreprises pharmacologiques ont mis fin à leurs relations avec Theranos. L'entreprise ainsi que sa dirigeante se voient menacées de perdre l'autorisation d'exploiter des laboratoires d'analyses sanguines.
+Plusieurs experts et médias ont exprimé l'hypothèse que la valeur financière de l'entreprise était hautement fantaisiste et que l'entreprise était construite sur une escroquerie.
+Le 18 mai 2016, le Wall Street Journal révèle que, d'après une source proche du dossier, Theranos a annulé l'ensemble des tests effectués en 2014 et 2015 sur sa plateforme Edison et a définitivement cessé d'utiliser celle-ci depuis juin 2015,.
+En octobre 2016, dans une lettre ouverte, Elizabeth Holmes indique que l'entreprise va fermer ses laboratoires et licencier 340 salariés,. En mars 2018, la Securities and Exchange Commission (SEC) récapitule, dans un acte d'accusation, les falsifications dont cette société est accusée.
+En 2018, ses dirigeants (parmi lesquels Ramesh Balwani) sont inculpés pour « fraude massive » : la technologie développée n'était pas exploitée comme annoncée dans les levées de fonds aux investisseurs, et servait à couvrir une « escroquerie sophistiquée », selon la Securities and Exchange Commission,.
+En septembre 2018, le nouveau directeur général de Theranos annonce la dissolution de la société.
 </t>
         </is>
       </c>
